--- a/user-data/fdi-pp/fdi-pp.xlsx
+++ b/user-data/fdi-pp/fdi-pp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>id</t>
   </si>
@@ -1354,9 +1354,6 @@
     <t>Source: Development Initiatives calculations based on UNCTAD Stat and World Bank</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1742,42 +1739,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15">
@@ -1793,11 +1790,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/fdi-pp/fdi-pp.xlsx
+++ b/user-data/fdi-pp/fdi-pp.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1363,7 +1363,7 @@
     <t>Net inflows of foreign direct investment divided by the total population of each country</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/fdi-pp/fdi-pp.xlsx
+++ b/user-data/fdi-pp/fdi-pp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
   <si>
     <t>id</t>
   </si>
@@ -1369,7 +1369,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1792,6 +1795,11 @@
         <v>453</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>454</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/fdi-pp/fdi-pp.xlsx
+++ b/user-data/fdi-pp/fdi-pp.xlsx
@@ -67,7 +67,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -175,7 +175,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -212,12 +212,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -298,6 +292,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -313,7 +313,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -991,7 +991,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1009,7 +1009,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1183,7 +1183,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1207,7 +1207,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1228,16 +1228,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1378,7 +1378,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -7799,7 +7799,7 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>32.77010506</v>
+        <v>18.92435161</v>
       </c>
     </row>
     <row r="437">
@@ -7813,7 +7813,7 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>37.034437</v>
+        <v>18.50079068</v>
       </c>
     </row>
     <row r="438">
@@ -7827,7 +7827,7 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>25.6211569</v>
+        <v>17.48277328</v>
       </c>
     </row>
     <row r="439">
@@ -7841,7 +7841,7 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>16.18601674</v>
+        <v>9.921542606</v>
       </c>
     </row>
     <row r="440">
@@ -7855,7 +7855,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>24.63746288</v>
+        <v>14.71767435</v>
       </c>
     </row>
     <row r="441">
@@ -7869,7 +7869,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>25.7933191</v>
+        <v>40.32802443</v>
       </c>
     </row>
     <row r="442">
@@ -7883,7 +7883,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>24.66496299</v>
+        <v>48.26714512</v>
       </c>
     </row>
     <row r="443">
@@ -7897,7 +7897,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>28.93654004</v>
+        <v>79.2806139</v>
       </c>
     </row>
     <row r="444">
@@ -7911,7 +7911,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>25.66001399</v>
+        <v>65.42833501</v>
       </c>
     </row>
     <row r="445">
@@ -7925,7 +7925,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>23.08373073</v>
+        <v>42.43031679</v>
       </c>
     </row>
     <row r="446">
@@ -7939,7 +7939,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>20.4095167</v>
+        <v>59.53679318</v>
       </c>
     </row>
     <row r="447">
@@ -7953,7 +7953,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>16.13637255</v>
+        <v>56.97857564</v>
       </c>
     </row>
     <row r="448">
@@ -7967,7 +7967,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>16.23467405</v>
+        <v>97.31143278</v>
       </c>
     </row>
     <row r="449">
@@ -7981,7 +7981,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>17.44158618</v>
+        <v>90.19613118</v>
       </c>
     </row>
     <row r="450">
@@ -7995,7 +7995,7 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>18.92435161</v>
+        <v>18.82748912</v>
       </c>
     </row>
     <row r="451">
@@ -8009,7 +8009,7 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>18.50079068</v>
+        <v>8.51020075</v>
       </c>
     </row>
     <row r="452">
@@ -8023,7 +8023,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>17.48277328</v>
+        <v>62.68038447</v>
       </c>
     </row>
     <row r="453">
@@ -8037,7 +8037,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>9.921542606</v>
+        <v>28.36273316</v>
       </c>
     </row>
     <row r="454">
@@ -8051,7 +8051,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>14.71767435</v>
+        <v>6.338703125</v>
       </c>
     </row>
     <row r="455">
@@ -8065,7 +8065,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>40.32802443</v>
+        <v>16.99511673</v>
       </c>
     </row>
     <row r="456">
@@ -8079,7 +8079,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>48.26714512</v>
+        <v>3.832098149</v>
       </c>
     </row>
     <row r="457">
@@ -8093,7 +8093,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>79.2806139</v>
+        <v>10.81851423</v>
       </c>
     </row>
     <row r="458">
@@ -8107,7 +8107,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>65.42833501</v>
+        <v>1.039020257</v>
       </c>
     </row>
     <row r="459">
@@ -8121,7 +8121,7 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>42.43031679</v>
+        <v>39.09439886</v>
       </c>
     </row>
     <row r="460">
@@ -8135,7 +8135,7 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>59.53679318</v>
+        <v>28.14603863</v>
       </c>
     </row>
     <row r="461">
@@ -8149,7 +8149,7 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>56.97857564</v>
+        <v>30.61120315</v>
       </c>
     </row>
     <row r="462">
@@ -8163,7 +8163,7 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>97.31143278</v>
+        <v>24.22898343</v>
       </c>
     </row>
     <row r="463">
@@ -8177,7 +8177,7 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>90.19613118</v>
+        <v>24.33066815</v>
       </c>
     </row>
     <row r="464">
@@ -8191,7 +8191,7 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>18.82748912</v>
+        <v>4246.117844</v>
       </c>
     </row>
     <row r="465">
@@ -8205,7 +8205,7 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>8.51020075</v>
+        <v>1786.095544</v>
       </c>
     </row>
     <row r="466">
@@ -8219,7 +8219,7 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>62.68038447</v>
+        <v>1420.042808</v>
       </c>
     </row>
     <row r="467">
@@ -8233,7 +8233,7 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>28.36273316</v>
+        <v>409.7675922</v>
       </c>
     </row>
     <row r="468">
@@ -8247,7 +8247,7 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>6.338703125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -8261,7 +8261,7 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>16.99511673</v>
+        <v>1119.871604</v>
       </c>
     </row>
     <row r="470">
@@ -8275,7 +8275,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>3.832098149</v>
+        <v>2376.368158</v>
       </c>
     </row>
     <row r="471">
@@ -8289,7 +8289,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>10.81851423</v>
+        <v>4183.154742</v>
       </c>
     </row>
     <row r="472">
@@ -8303,7 +8303,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>1.039020257</v>
+        <v>2100.63399</v>
       </c>
     </row>
     <row r="473">
@@ -8317,7 +8317,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>39.09439886</v>
+        <v>830.4660997</v>
       </c>
     </row>
     <row r="474">
@@ -8331,7 +8331,7 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>28.14603863</v>
+        <v>903.8158078</v>
       </c>
     </row>
     <row r="475">
@@ -8345,7 +8345,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>30.61120315</v>
+        <v>1162.507141</v>
       </c>
     </row>
     <row r="476">
@@ -8359,7 +8359,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>24.22898343</v>
+        <v>1237.974046</v>
       </c>
     </row>
     <row r="477">
@@ -8373,7 +8373,7 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>24.33066815</v>
+        <v>1807.374995</v>
       </c>
     </row>
     <row r="478">
@@ -8387,7 +8387,7 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>4246.117844</v>
+        <v>163.8533592</v>
       </c>
     </row>
     <row r="479">
@@ -8401,7 +8401,7 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>1786.095544</v>
+        <v>47.64116561</v>
       </c>
     </row>
     <row r="480">
@@ -8415,7 +8415,7 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>1420.042808</v>
+        <v>135.7108496</v>
       </c>
     </row>
     <row r="481">
@@ -8429,7 +8429,7 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>409.7675922</v>
+        <v>95.07827091</v>
       </c>
     </row>
     <row r="482">
@@ -8443,7 +8443,7 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>0</v>
+        <v>173.9610049</v>
       </c>
     </row>
     <row r="483">
@@ -8457,7 +8457,7 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>1119.871604</v>
+        <v>204.8907252</v>
       </c>
     </row>
     <row r="484">
@@ -8471,7 +8471,7 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>2376.368158</v>
+        <v>313.1926727</v>
       </c>
     </row>
     <row r="485">
@@ -8485,7 +8485,7 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>4183.154742</v>
+        <v>405.5782588</v>
       </c>
     </row>
     <row r="486">
@@ -8499,7 +8499,7 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>2100.63399</v>
+        <v>504.7378074</v>
       </c>
     </row>
     <row r="487">
@@ -8513,7 +8513,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>830.4660997</v>
+        <v>343.9898331</v>
       </c>
     </row>
     <row r="488">
@@ -8527,7 +8527,7 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>903.8158078</v>
+        <v>324.999028</v>
       </c>
     </row>
     <row r="489">
@@ -8541,7 +8541,7 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>1162.507141</v>
+        <v>290.2610888</v>
       </c>
     </row>
     <row r="490">
@@ -8555,7 +8555,7 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>1237.974046</v>
+        <v>115.946762</v>
       </c>
     </row>
     <row r="491">
@@ -8569,7 +8569,7 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v>1807.374995</v>
+        <v>35.81537488</v>
       </c>
     </row>
     <row r="492">
@@ -8583,7 +8583,7 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>163.8533592</v>
+        <v>0.482288585</v>
       </c>
     </row>
     <row r="493">
@@ -8597,7 +8597,7 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>47.64116561</v>
+        <v>2.736002829</v>
       </c>
     </row>
     <row r="494">
@@ -8611,7 +8611,7 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>135.7108496</v>
+        <v>2.735581341</v>
       </c>
     </row>
     <row r="495">
@@ -8625,7 +8625,7 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>95.07827091</v>
+        <v>4.354582208</v>
       </c>
     </row>
     <row r="496">
@@ -8639,7 +8639,7 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>173.9610049</v>
+        <v>5.187071235</v>
       </c>
     </row>
     <row r="497">
@@ -8653,7 +8653,7 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>204.8907252</v>
+        <v>3.285609876</v>
       </c>
     </row>
     <row r="498">
@@ -8667,7 +8667,7 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>313.1926727</v>
+        <v>10.62264781</v>
       </c>
     </row>
     <row r="499">
@@ -8681,7 +8681,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>405.5782588</v>
+        <v>15.36526075</v>
       </c>
     </row>
     <row r="500">
@@ -8695,7 +8695,7 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>504.7378074</v>
+        <v>27.16330468</v>
       </c>
     </row>
     <row r="501">
@@ -8709,7 +8709,7 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>343.9898331</v>
+        <v>9.799418703</v>
       </c>
     </row>
     <row r="502">
@@ -8723,7 +8723,7 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>324.999028</v>
+        <v>14.38156165</v>
       </c>
     </row>
     <row r="503">
@@ -8737,7 +8737,7 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>290.2610888</v>
+        <v>7.904124782</v>
       </c>
     </row>
     <row r="504">
@@ -8751,7 +8751,7 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>115.946762</v>
+        <v>15.72886468</v>
       </c>
     </row>
     <row r="505">
@@ -8765,7 +8765,7 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>35.81537488</v>
+        <v>0.254796467</v>
       </c>
     </row>
     <row r="506">
@@ -8778,9 +8778,7 @@
       <c r="C506" t="n">
         <v>2000</v>
       </c>
-      <c r="D506" t="n">
-        <v>0.482288585</v>
-      </c>
+      <c r="D506"/>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -8792,9 +8790,7 @@
       <c r="C507" t="n">
         <v>2001</v>
       </c>
-      <c r="D507" t="n">
-        <v>2.736002829</v>
-      </c>
+      <c r="D507"/>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -8806,9 +8802,7 @@
       <c r="C508" t="n">
         <v>2002</v>
       </c>
-      <c r="D508" t="n">
-        <v>2.735581341</v>
-      </c>
+      <c r="D508"/>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -8820,9 +8814,7 @@
       <c r="C509" t="n">
         <v>2003</v>
       </c>
-      <c r="D509" t="n">
-        <v>4.354582208</v>
-      </c>
+      <c r="D509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -8834,9 +8826,7 @@
       <c r="C510" t="n">
         <v>2004</v>
       </c>
-      <c r="D510" t="n">
-        <v>5.187071235</v>
-      </c>
+      <c r="D510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -8848,9 +8838,7 @@
       <c r="C511" t="n">
         <v>2005</v>
       </c>
-      <c r="D511" t="n">
-        <v>3.285609876</v>
-      </c>
+      <c r="D511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -8862,9 +8850,7 @@
       <c r="C512" t="n">
         <v>2006</v>
       </c>
-      <c r="D512" t="n">
-        <v>10.62264781</v>
-      </c>
+      <c r="D512"/>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -8876,9 +8862,7 @@
       <c r="C513" t="n">
         <v>2007</v>
       </c>
-      <c r="D513" t="n">
-        <v>15.36526075</v>
-      </c>
+      <c r="D513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -8890,9 +8874,7 @@
       <c r="C514" t="n">
         <v>2008</v>
       </c>
-      <c r="D514" t="n">
-        <v>27.16330468</v>
-      </c>
+      <c r="D514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -8904,9 +8886,7 @@
       <c r="C515" t="n">
         <v>2009</v>
       </c>
-      <c r="D515" t="n">
-        <v>9.799418703</v>
-      </c>
+      <c r="D515"/>
     </row>
     <row r="516">
       <c r="A516" t="s">
@@ -8918,9 +8898,7 @@
       <c r="C516" t="n">
         <v>2010</v>
       </c>
-      <c r="D516" t="n">
-        <v>14.38156165</v>
-      </c>
+      <c r="D516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -8932,9 +8910,7 @@
       <c r="C517" t="n">
         <v>2011</v>
       </c>
-      <c r="D517" t="n">
-        <v>7.904124782</v>
-      </c>
+      <c r="D517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
@@ -8946,9 +8922,7 @@
       <c r="C518" t="n">
         <v>2012</v>
       </c>
-      <c r="D518" t="n">
-        <v>15.72886468</v>
-      </c>
+      <c r="D518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -8960,9 +8934,7 @@
       <c r="C519" t="n">
         <v>2013</v>
       </c>
-      <c r="D519" t="n">
-        <v>0.254796467</v>
-      </c>
+      <c r="D519"/>
     </row>
     <row r="520">
       <c r="A520" t="s">
@@ -8974,7 +8946,9 @@
       <c r="C520" t="n">
         <v>2000</v>
       </c>
-      <c r="D520"/>
+      <c r="D520" t="n">
+        <v>39.44749805</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -8986,7 +8960,9 @@
       <c r="C521" t="n">
         <v>2001</v>
       </c>
-      <c r="D521"/>
+      <c r="D521" t="n">
+        <v>137.5069091</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
@@ -8998,7 +8974,9 @@
       <c r="C522" t="n">
         <v>2002</v>
       </c>
-      <c r="D522"/>
+      <c r="D522" t="n">
+        <v>247.420427</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -9010,7 +8988,9 @@
       <c r="C523" t="n">
         <v>2003</v>
       </c>
-      <c r="D523"/>
+      <c r="D523" t="n">
+        <v>153.2595485</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -9022,7 +9002,9 @@
       <c r="C524" t="n">
         <v>2004</v>
       </c>
-      <c r="D524"/>
+      <c r="D524" t="n">
+        <v>80.1279734</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -9034,7 +9016,9 @@
       <c r="C525" t="n">
         <v>2005</v>
       </c>
-      <c r="D525"/>
+      <c r="D525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
@@ -9046,7 +9030,9 @@
       <c r="C526" t="n">
         <v>2006</v>
       </c>
-      <c r="D526"/>
+      <c r="D526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
@@ -9058,7 +9044,9 @@
       <c r="C527" t="n">
         <v>2007</v>
       </c>
-      <c r="D527"/>
+      <c r="D527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
@@ -9070,7 +9058,9 @@
       <c r="C528" t="n">
         <v>2008</v>
       </c>
-      <c r="D528"/>
+      <c r="D528" t="n">
+        <v>38.98808679</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -9082,7 +9072,9 @@
       <c r="C529" t="n">
         <v>2009</v>
       </c>
-      <c r="D529"/>
+      <c r="D529" t="n">
+        <v>35.60867327</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
@@ -9094,7 +9086,9 @@
       <c r="C530" t="n">
         <v>2010</v>
       </c>
-      <c r="D530"/>
+      <c r="D530" t="n">
+        <v>28.39656921</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -9106,7 +9100,9 @@
       <c r="C531" t="n">
         <v>2011</v>
       </c>
-      <c r="D531"/>
+      <c r="D531" t="n">
+        <v>21.79388263</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -9118,7 +9114,9 @@
       <c r="C532" t="n">
         <v>2012</v>
       </c>
-      <c r="D532"/>
+      <c r="D532" t="n">
+        <v>27.53681128</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
@@ -9130,7 +9128,9 @@
       <c r="C533" t="n">
         <v>2013</v>
       </c>
-      <c r="D533"/>
+      <c r="D533" t="n">
+        <v>42.17540574</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
@@ -9143,7 +9143,7 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>39.44749805</v>
+        <v>646.1046796</v>
       </c>
     </row>
     <row r="535">
@@ -9157,7 +9157,7 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>137.5069091</v>
+        <v>623.7398679</v>
       </c>
     </row>
     <row r="536">
@@ -9171,7 +9171,7 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>247.420427</v>
+        <v>388.9767713</v>
       </c>
     </row>
     <row r="537">
@@ -9185,7 +9185,7 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>153.2595485</v>
+        <v>622.6644827</v>
       </c>
     </row>
     <row r="538">
@@ -9199,7 +9199,7 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>80.1279734</v>
+        <v>842.6723456</v>
       </c>
     </row>
     <row r="539">
@@ -9213,7 +9213,7 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>0</v>
+        <v>700.8976817</v>
       </c>
     </row>
     <row r="540">
@@ -9227,7 +9227,7 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>0</v>
+        <v>611.0734161</v>
       </c>
     </row>
     <row r="541">
@@ -9241,7 +9241,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>0</v>
+        <v>963.2533229</v>
       </c>
     </row>
     <row r="542">
@@ -9255,7 +9255,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>38.98808679</v>
+        <v>1170.936034</v>
       </c>
     </row>
     <row r="543">
@@ -9269,7 +9269,7 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>35.60867327</v>
+        <v>995.8323342</v>
       </c>
     </row>
     <row r="544">
@@ -9283,7 +9283,7 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>28.39656921</v>
+        <v>1007.774649</v>
       </c>
     </row>
     <row r="545">
@@ -9297,7 +9297,7 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>21.79388263</v>
+        <v>1363.895697</v>
       </c>
     </row>
     <row r="546">
@@ -9311,7 +9311,7 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>27.53681128</v>
+        <v>1634.24141</v>
       </c>
     </row>
     <row r="547">
@@ -9325,7 +9325,7 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>42.17540574</v>
+        <v>1165.694592</v>
       </c>
     </row>
     <row r="548">
@@ -9339,7 +9339,7 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>646.1046796</v>
+        <v>70.78081188</v>
       </c>
     </row>
     <row r="549">
@@ -9353,7 +9353,7 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>623.7398679</v>
+        <v>79.2641897</v>
       </c>
     </row>
     <row r="550">
@@ -9367,7 +9367,7 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>388.9767713</v>
+        <v>88.05603603</v>
       </c>
     </row>
     <row r="551">
@@ -9381,7 +9381,7 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>622.6644827</v>
+        <v>86.53463739</v>
       </c>
     </row>
     <row r="552">
@@ -9395,7 +9395,7 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>842.6723456</v>
+        <v>91.16015665</v>
       </c>
     </row>
     <row r="553">
@@ -9409,7 +9409,7 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>700.8976817</v>
+        <v>103.1059208</v>
       </c>
     </row>
     <row r="554">
@@ -9423,7 +9423,7 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>611.0734161</v>
+        <v>96.52122162</v>
       </c>
     </row>
     <row r="555">
@@ -9437,7 +9437,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>963.2533229</v>
+        <v>97.7534863</v>
       </c>
     </row>
     <row r="556">
@@ -9451,7 +9451,7 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>1170.936034</v>
+        <v>106.8945296</v>
       </c>
     </row>
     <row r="557">
@@ -9465,7 +9465,7 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>995.8323342</v>
+        <v>92.28011525</v>
       </c>
     </row>
     <row r="558">
@@ -9479,7 +9479,7 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>1007.774649</v>
+        <v>103.0851156</v>
       </c>
     </row>
     <row r="559">
@@ -9493,7 +9493,7 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>1363.895697</v>
+        <v>98.14468654</v>
       </c>
     </row>
     <row r="560">
@@ -9507,7 +9507,7 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>1634.24141</v>
+        <v>89.64273948</v>
       </c>
     </row>
     <row r="561">
@@ -9521,7 +9521,7 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>1165.694592</v>
+        <v>87.03834653</v>
       </c>
     </row>
     <row r="562">
@@ -9535,7 +9535,7 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>70.78081188</v>
+        <v>136.6520361</v>
       </c>
     </row>
     <row r="563">
@@ -9549,7 +9549,7 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>79.2641897</v>
+        <v>145.0152379</v>
       </c>
     </row>
     <row r="564">
@@ -9563,7 +9563,7 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>88.05603603</v>
+        <v>123.0944834</v>
       </c>
     </row>
     <row r="565">
@@ -9577,7 +9577,7 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>86.53463739</v>
+        <v>105.0937734</v>
       </c>
     </row>
     <row r="566">
@@ -9591,7 +9591,7 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>91.16015665</v>
+        <v>154.4221618</v>
       </c>
     </row>
     <row r="567">
@@ -9605,7 +9605,7 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>103.1059208</v>
+        <v>432.4326936</v>
       </c>
     </row>
     <row r="568">
@@ -9619,7 +9619,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>96.52122162</v>
+        <v>265.9861378</v>
       </c>
     </row>
     <row r="569">
@@ -9633,7 +9633,7 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>97.7534863</v>
+        <v>298.5435365</v>
       </c>
     </row>
     <row r="570">
@@ -9647,7 +9647,7 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>106.8945296</v>
+        <v>303.2879504</v>
       </c>
     </row>
     <row r="571">
@@ -9661,7 +9661,7 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>92.28011525</v>
+        <v>213.6124922</v>
       </c>
     </row>
     <row r="572">
@@ -9675,7 +9675,7 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>103.0851156</v>
+        <v>168.6506136</v>
       </c>
     </row>
     <row r="573">
@@ -9689,7 +9689,7 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>98.14468654</v>
+        <v>300.8754886</v>
       </c>
     </row>
     <row r="574">
@@ -9703,7 +9703,7 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>89.64273948</v>
+        <v>325.5244581</v>
       </c>
     </row>
     <row r="575">
@@ -9717,7 +9717,7 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>87.03834653</v>
+        <v>352.9077719</v>
       </c>
     </row>
     <row r="576">
@@ -9731,7 +9731,7 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v>136.6520361</v>
+        <v>0.405772369</v>
       </c>
     </row>
     <row r="577">
@@ -9745,7 +9745,7 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v>145.0152379</v>
+        <v>4.59253866</v>
       </c>
     </row>
     <row r="578">
@@ -9759,7 +9759,7 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v>123.0944834</v>
+        <v>1.528836983</v>
       </c>
     </row>
     <row r="579">
@@ -9773,7 +9773,7 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v>105.0937734</v>
+        <v>2.183399413</v>
       </c>
     </row>
     <row r="580">
@@ -9787,7 +9787,7 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>154.4221618</v>
+        <v>1.607450281</v>
       </c>
     </row>
     <row r="581">
@@ -9801,7 +9801,7 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>432.4326936</v>
+        <v>1.271016906</v>
       </c>
     </row>
     <row r="582">
@@ -9815,7 +9815,7 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>265.9861378</v>
+        <v>1.780862795</v>
       </c>
     </row>
     <row r="583">
@@ -9829,7 +9829,7 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>298.5435365</v>
+        <v>14.05635673</v>
       </c>
     </row>
     <row r="584">
@@ -9843,7 +9843,7 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v>303.2879504</v>
+        <v>7.291574813</v>
       </c>
     </row>
     <row r="585">
@@ -9857,7 +9857,7 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v>213.6124922</v>
+        <v>21.37435694</v>
       </c>
     </row>
     <row r="586">
@@ -9871,7 +9871,7 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v>168.6506136</v>
+        <v>12.70738374</v>
       </c>
     </row>
     <row r="587">
@@ -9885,7 +9885,7 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v>300.8754886</v>
+        <v>31.22663072</v>
       </c>
     </row>
     <row r="588">
@@ -9899,7 +9899,7 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v>325.5244581</v>
+        <v>14.46094772</v>
       </c>
     </row>
     <row r="589">
@@ -9913,7 +9913,7 @@
         <v>2013</v>
       </c>
       <c r="D589" t="n">
-        <v>352.9077719</v>
+        <v>17.69044244</v>
       </c>
     </row>
     <row r="590">
@@ -9927,7 +9927,7 @@
         <v>2000</v>
       </c>
       <c r="D590" t="n">
-        <v>0.405772369</v>
+        <v>130.3248993</v>
       </c>
     </row>
     <row r="591">
@@ -9941,7 +9941,7 @@
         <v>2001</v>
       </c>
       <c r="D591" t="n">
-        <v>4.59253866</v>
+        <v>66.92741237</v>
       </c>
     </row>
     <row r="592">
@@ -9955,7 +9955,7 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>1.528836983</v>
+        <v>115.6831592</v>
       </c>
     </row>
     <row r="593">
@@ -9969,7 +9969,7 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>2.183399413</v>
+        <v>241.6427677</v>
       </c>
     </row>
     <row r="594">
@@ -9983,7 +9983,7 @@
         <v>2004</v>
       </c>
       <c r="D594" t="n">
-        <v>1.607450281</v>
+        <v>292.7735326</v>
       </c>
     </row>
     <row r="595">
@@ -9997,7 +9997,7 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>1.271016906</v>
+        <v>674.2395005</v>
       </c>
     </row>
     <row r="596">
@@ -10011,7 +10011,7 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>1.780862795</v>
+        <v>715.7820372</v>
       </c>
     </row>
     <row r="597">
@@ -10025,7 +10025,7 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>14.05635673</v>
+        <v>743.5774815</v>
       </c>
     </row>
     <row r="598">
@@ -10039,7 +10039,7 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>7.291574813</v>
+        <v>596.1649431</v>
       </c>
     </row>
     <row r="599">
@@ -10053,7 +10053,7 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>21.37435694</v>
+        <v>567.6300133</v>
       </c>
     </row>
     <row r="600">
@@ -10067,7 +10067,7 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>12.70738374</v>
+        <v>569.5367457</v>
       </c>
     </row>
     <row r="601">
@@ -10081,7 +10081,7 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>31.22663072</v>
+        <v>660.2329688</v>
       </c>
     </row>
     <row r="602">
@@ -10095,7 +10095,7 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>14.46094772</v>
+        <v>635.9008571</v>
       </c>
     </row>
     <row r="603">
@@ -10109,7 +10109,7 @@
         <v>2013</v>
       </c>
       <c r="D603" t="n">
-        <v>17.69044244</v>
+        <v>482.8223885</v>
       </c>
     </row>
     <row r="604">
@@ -10123,7 +10123,7 @@
         <v>2000</v>
       </c>
       <c r="D604" t="n">
-        <v>130.3248993</v>
+        <v>175.8664821</v>
       </c>
     </row>
     <row r="605">
@@ -10137,7 +10137,7 @@
         <v>2001</v>
       </c>
       <c r="D605" t="n">
-        <v>66.92741237</v>
+        <v>190.6511357</v>
       </c>
     </row>
     <row r="606">
@@ -10151,7 +10151,7 @@
         <v>2002</v>
       </c>
       <c r="D606" t="n">
-        <v>115.6831592</v>
+        <v>268.265142</v>
       </c>
     </row>
     <row r="607">
@@ -10165,7 +10165,7 @@
         <v>2003</v>
       </c>
       <c r="D607" t="n">
-        <v>241.6427677</v>
+        <v>234.9413949</v>
       </c>
     </row>
     <row r="608">
@@ -10179,7 +10179,7 @@
         <v>2004</v>
       </c>
       <c r="D608" t="n">
-        <v>292.7735326</v>
+        <v>312.9072861</v>
       </c>
     </row>
     <row r="609">
@@ -10193,7 +10193,7 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>674.2395005</v>
+        <v>328.9975922</v>
       </c>
     </row>
     <row r="610">
@@ -10207,7 +10207,7 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>715.7820372</v>
+        <v>532.2755499</v>
       </c>
     </row>
     <row r="611">
@@ -10221,7 +10221,7 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>743.5774815</v>
+        <v>624.5082701</v>
       </c>
     </row>
     <row r="612">
@@ -10235,7 +10235,7 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>596.1649431</v>
+        <v>610.8285928</v>
       </c>
     </row>
     <row r="613">
@@ -10249,7 +10249,7 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>567.6300133</v>
+        <v>391.8638684</v>
       </c>
     </row>
     <row r="614">
@@ -10263,7 +10263,7 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>569.5367457</v>
+        <v>357.083404</v>
       </c>
     </row>
     <row r="615">
@@ -10277,7 +10277,7 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>660.2329688</v>
+        <v>480.7305343</v>
       </c>
     </row>
     <row r="616">
@@ -10291,7 +10291,7 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>635.9008571</v>
+        <v>485.3570905</v>
       </c>
     </row>
     <row r="617">
@@ -10305,7 +10305,7 @@
         <v>2013</v>
       </c>
       <c r="D617" t="n">
-        <v>482.8223885</v>
+        <v>523.2975539</v>
       </c>
     </row>
     <row r="618">
@@ -10319,7 +10319,7 @@
         <v>2000</v>
       </c>
       <c r="D618" t="n">
-        <v>175.8664821</v>
+        <v>32.77010506</v>
       </c>
     </row>
     <row r="619">
@@ -10333,7 +10333,7 @@
         <v>2001</v>
       </c>
       <c r="D619" t="n">
-        <v>190.6511357</v>
+        <v>37.034437</v>
       </c>
     </row>
     <row r="620">
@@ -10347,7 +10347,7 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>268.265142</v>
+        <v>25.6211569</v>
       </c>
     </row>
     <row r="621">
@@ -10361,7 +10361,7 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>234.9413949</v>
+        <v>16.18601674</v>
       </c>
     </row>
     <row r="622">
@@ -10375,7 +10375,7 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>312.9072861</v>
+        <v>24.63746288</v>
       </c>
     </row>
     <row r="623">
@@ -10389,7 +10389,7 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>328.9975922</v>
+        <v>25.7933191</v>
       </c>
     </row>
     <row r="624">
@@ -10403,7 +10403,7 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>532.2755499</v>
+        <v>24.66496299</v>
       </c>
     </row>
     <row r="625">
@@ -10417,7 +10417,7 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>624.5082701</v>
+        <v>28.93654004</v>
       </c>
     </row>
     <row r="626">
@@ -10431,7 +10431,7 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>610.8285928</v>
+        <v>25.66001399</v>
       </c>
     </row>
     <row r="627">
@@ -10445,7 +10445,7 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>391.8638684</v>
+        <v>23.08373073</v>
       </c>
     </row>
     <row r="628">
@@ -10459,7 +10459,7 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>357.083404</v>
+        <v>20.4095167</v>
       </c>
     </row>
     <row r="629">
@@ -10473,7 +10473,7 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>480.7305343</v>
+        <v>16.13637255</v>
       </c>
     </row>
     <row r="630">
@@ -10487,7 +10487,7 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>485.3570905</v>
+        <v>16.23467405</v>
       </c>
     </row>
     <row r="631">
@@ -10501,7 +10501,7 @@
         <v>2013</v>
       </c>
       <c r="D631" t="n">
-        <v>523.2975539</v>
+        <v>17.44158618</v>
       </c>
     </row>
     <row r="632">
@@ -40137,7 +40137,7 @@
         <v>2000</v>
       </c>
       <c r="D2802" t="n">
-        <v>42.53040466</v>
+        <v>2882.793036</v>
       </c>
     </row>
     <row r="2803">
@@ -40151,7 +40151,7 @@
         <v>2001</v>
       </c>
       <c r="D2803" t="n">
-        <v>51.37299195</v>
+        <v>1301.519575</v>
       </c>
     </row>
     <row r="2804">
@@ -40165,7 +40165,7 @@
         <v>2002</v>
       </c>
       <c r="D2804" t="n">
-        <v>42.82194913</v>
+        <v>568.0013433</v>
       </c>
     </row>
     <row r="2805">
@@ -40179,7 +40179,7 @@
         <v>2003</v>
       </c>
       <c r="D2805" t="n">
-        <v>82.13944907</v>
+        <v>553.7120643</v>
       </c>
     </row>
     <row r="2806">
@@ -40193,7 +40193,7 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v>86.33075082</v>
+        <v>999.80952</v>
       </c>
     </row>
     <row r="2807">
@@ -40207,7 +40207,7 @@
         <v>2005</v>
       </c>
       <c r="D2807" t="n">
-        <v>307.0461622</v>
+        <v>3056.626717</v>
       </c>
     </row>
     <row r="2808">
@@ -40221,7 +40221,7 @@
         <v>2006</v>
       </c>
       <c r="D2808" t="n">
-        <v>190.5876453</v>
+        <v>2558.302413</v>
       </c>
     </row>
     <row r="2809">
@@ -40235,7 +40235,7 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v>274.9087468</v>
+        <v>2922.272415</v>
       </c>
     </row>
     <row r="2810">
@@ -40249,7 +40249,7 @@
         <v>2008</v>
       </c>
       <c r="D2810" t="n">
-        <v>247.2004096</v>
+        <v>1383.104422</v>
       </c>
     </row>
     <row r="2811">
@@ -40263,7 +40263,7 @@
         <v>2009</v>
       </c>
       <c r="D2811" t="n">
-        <v>143.4444404</v>
+        <v>1333.037185</v>
       </c>
     </row>
     <row r="2812">
@@ -40277,7 +40277,7 @@
         <v>2010</v>
       </c>
       <c r="D2812" t="n">
-        <v>173.7447424</v>
+        <v>843.6928352</v>
       </c>
     </row>
     <row r="2813">
@@ -40291,7 +40291,7 @@
         <v>2011</v>
       </c>
       <c r="D2813" t="n">
-        <v>169.9004486</v>
+        <v>812.4209941</v>
       </c>
     </row>
     <row r="2814">
@@ -40305,7 +40305,7 @@
         <v>2012</v>
       </c>
       <c r="D2814" t="n">
-        <v>171.8015586</v>
+        <v>718.9806706</v>
       </c>
     </row>
     <row r="2815">
@@ -40319,7 +40319,7 @@
         <v>2013</v>
       </c>
       <c r="D2815" t="n">
-        <v>82.27467625</v>
+        <v>574.7266793</v>
       </c>
     </row>
     <row r="2816">
@@ -40333,7 +40333,7 @@
         <v>2000</v>
       </c>
       <c r="D2816" t="n">
-        <v>2882.793036</v>
+        <v>42.53040466</v>
       </c>
     </row>
     <row r="2817">
@@ -40347,7 +40347,7 @@
         <v>2001</v>
       </c>
       <c r="D2817" t="n">
-        <v>1301.519575</v>
+        <v>51.37299195</v>
       </c>
     </row>
     <row r="2818">
@@ -40361,7 +40361,7 @@
         <v>2002</v>
       </c>
       <c r="D2818" t="n">
-        <v>568.0013433</v>
+        <v>42.82194913</v>
       </c>
     </row>
     <row r="2819">
@@ -40375,7 +40375,7 @@
         <v>2003</v>
       </c>
       <c r="D2819" t="n">
-        <v>553.7120643</v>
+        <v>82.13944907</v>
       </c>
     </row>
     <row r="2820">
@@ -40389,7 +40389,7 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v>999.80952</v>
+        <v>86.33075082</v>
       </c>
     </row>
     <row r="2821">
@@ -40403,7 +40403,7 @@
         <v>2005</v>
       </c>
       <c r="D2821" t="n">
-        <v>3056.626717</v>
+        <v>307.0461622</v>
       </c>
     </row>
     <row r="2822">
@@ -40417,7 +40417,7 @@
         <v>2006</v>
       </c>
       <c r="D2822" t="n">
-        <v>2558.302413</v>
+        <v>190.5876453</v>
       </c>
     </row>
     <row r="2823">
@@ -40431,7 +40431,7 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v>2922.272415</v>
+        <v>274.9087468</v>
       </c>
     </row>
     <row r="2824">
@@ -40445,7 +40445,7 @@
         <v>2008</v>
       </c>
       <c r="D2824" t="n">
-        <v>1383.104422</v>
+        <v>247.2004096</v>
       </c>
     </row>
     <row r="2825">
@@ -40459,7 +40459,7 @@
         <v>2009</v>
       </c>
       <c r="D2825" t="n">
-        <v>1333.037185</v>
+        <v>143.4444404</v>
       </c>
     </row>
     <row r="2826">
@@ -40473,7 +40473,7 @@
         <v>2010</v>
       </c>
       <c r="D2826" t="n">
-        <v>843.6928352</v>
+        <v>173.7447424</v>
       </c>
     </row>
     <row r="2827">
@@ -40487,7 +40487,7 @@
         <v>2011</v>
       </c>
       <c r="D2827" t="n">
-        <v>812.4209941</v>
+        <v>169.9004486</v>
       </c>
     </row>
     <row r="2828">
@@ -40501,7 +40501,7 @@
         <v>2012</v>
       </c>
       <c r="D2828" t="n">
-        <v>718.9806706</v>
+        <v>171.8015586</v>
       </c>
     </row>
     <row r="2829">
@@ -40515,7 +40515,7 @@
         <v>2013</v>
       </c>
       <c r="D2829" t="n">
-        <v>574.7266793</v>
+        <v>82.27467625</v>
       </c>
     </row>
     <row r="2830">
@@ -43956,46 +43956,46 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>32.77010506</v>
+        <v>18.92435161</v>
       </c>
       <c r="D33" t="n">
-        <v>37.034437</v>
+        <v>18.50079068</v>
       </c>
       <c r="E33" t="n">
-        <v>25.6211569</v>
+        <v>17.48277328</v>
       </c>
       <c r="F33" t="n">
-        <v>16.18601674</v>
+        <v>9.921542606</v>
       </c>
       <c r="G33" t="n">
-        <v>24.63746288</v>
+        <v>14.71767435</v>
       </c>
       <c r="H33" t="n">
-        <v>25.7933191</v>
+        <v>40.32802443</v>
       </c>
       <c r="I33" t="n">
-        <v>24.66496299</v>
+        <v>48.26714512</v>
       </c>
       <c r="J33" t="n">
-        <v>28.93654004</v>
+        <v>79.2806139</v>
       </c>
       <c r="K33" t="n">
-        <v>25.66001399</v>
+        <v>65.42833501</v>
       </c>
       <c r="L33" t="n">
-        <v>23.08373073</v>
+        <v>42.43031679</v>
       </c>
       <c r="M33" t="n">
-        <v>20.4095167</v>
+        <v>59.53679318</v>
       </c>
       <c r="N33" t="n">
-        <v>16.13637255</v>
+        <v>56.97857564</v>
       </c>
       <c r="O33" t="n">
-        <v>16.23467405</v>
+        <v>97.31143278</v>
       </c>
       <c r="P33" t="n">
-        <v>17.44158618</v>
+        <v>90.19613118</v>
       </c>
     </row>
     <row r="34">
@@ -44006,46 +44006,46 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>18.92435161</v>
+        <v>18.82748912</v>
       </c>
       <c r="D34" t="n">
-        <v>18.50079068</v>
+        <v>8.51020075</v>
       </c>
       <c r="E34" t="n">
-        <v>17.48277328</v>
+        <v>62.68038447</v>
       </c>
       <c r="F34" t="n">
-        <v>9.921542606</v>
+        <v>28.36273316</v>
       </c>
       <c r="G34" t="n">
-        <v>14.71767435</v>
+        <v>6.338703125</v>
       </c>
       <c r="H34" t="n">
-        <v>40.32802443</v>
+        <v>16.99511673</v>
       </c>
       <c r="I34" t="n">
-        <v>48.26714512</v>
+        <v>3.832098149</v>
       </c>
       <c r="J34" t="n">
-        <v>79.2806139</v>
+        <v>10.81851423</v>
       </c>
       <c r="K34" t="n">
-        <v>65.42833501</v>
+        <v>1.039020257</v>
       </c>
       <c r="L34" t="n">
-        <v>42.43031679</v>
+        <v>39.09439886</v>
       </c>
       <c r="M34" t="n">
-        <v>59.53679318</v>
+        <v>28.14603863</v>
       </c>
       <c r="N34" t="n">
-        <v>56.97857564</v>
+        <v>30.61120315</v>
       </c>
       <c r="O34" t="n">
-        <v>97.31143278</v>
+        <v>24.22898343</v>
       </c>
       <c r="P34" t="n">
-        <v>90.19613118</v>
+        <v>24.33066815</v>
       </c>
     </row>
     <row r="35">
@@ -44056,46 +44056,46 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>18.82748912</v>
+        <v>4246.117844</v>
       </c>
       <c r="D35" t="n">
-        <v>8.51020075</v>
+        <v>1786.095544</v>
       </c>
       <c r="E35" t="n">
-        <v>62.68038447</v>
+        <v>1420.042808</v>
       </c>
       <c r="F35" t="n">
-        <v>28.36273316</v>
+        <v>409.7675922</v>
       </c>
       <c r="G35" t="n">
-        <v>6.338703125</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.99511673</v>
+        <v>1119.871604</v>
       </c>
       <c r="I35" t="n">
-        <v>3.832098149</v>
+        <v>2376.368158</v>
       </c>
       <c r="J35" t="n">
-        <v>10.81851423</v>
+        <v>4183.154742</v>
       </c>
       <c r="K35" t="n">
-        <v>1.039020257</v>
+        <v>2100.63399</v>
       </c>
       <c r="L35" t="n">
-        <v>39.09439886</v>
+        <v>830.4660997</v>
       </c>
       <c r="M35" t="n">
-        <v>28.14603863</v>
+        <v>903.8158078</v>
       </c>
       <c r="N35" t="n">
-        <v>30.61120315</v>
+        <v>1162.507141</v>
       </c>
       <c r="O35" t="n">
-        <v>24.22898343</v>
+        <v>1237.974046</v>
       </c>
       <c r="P35" t="n">
-        <v>24.33066815</v>
+        <v>1807.374995</v>
       </c>
     </row>
     <row r="36">
@@ -44106,46 +44106,46 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>4246.117844</v>
+        <v>163.8533592</v>
       </c>
       <c r="D36" t="n">
-        <v>1786.095544</v>
+        <v>47.64116561</v>
       </c>
       <c r="E36" t="n">
-        <v>1420.042808</v>
+        <v>135.7108496</v>
       </c>
       <c r="F36" t="n">
-        <v>409.7675922</v>
+        <v>95.07827091</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>173.9610049</v>
       </c>
       <c r="H36" t="n">
-        <v>1119.871604</v>
+        <v>204.8907252</v>
       </c>
       <c r="I36" t="n">
-        <v>2376.368158</v>
+        <v>313.1926727</v>
       </c>
       <c r="J36" t="n">
-        <v>4183.154742</v>
+        <v>405.5782588</v>
       </c>
       <c r="K36" t="n">
-        <v>2100.63399</v>
+        <v>504.7378074</v>
       </c>
       <c r="L36" t="n">
-        <v>830.4660997</v>
+        <v>343.9898331</v>
       </c>
       <c r="M36" t="n">
-        <v>903.8158078</v>
+        <v>324.999028</v>
       </c>
       <c r="N36" t="n">
-        <v>1162.507141</v>
+        <v>290.2610888</v>
       </c>
       <c r="O36" t="n">
-        <v>1237.974046</v>
+        <v>115.946762</v>
       </c>
       <c r="P36" t="n">
-        <v>1807.374995</v>
+        <v>35.81537488</v>
       </c>
     </row>
     <row r="37">
@@ -44156,46 +44156,46 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>163.8533592</v>
+        <v>0.482288585</v>
       </c>
       <c r="D37" t="n">
-        <v>47.64116561</v>
+        <v>2.736002829</v>
       </c>
       <c r="E37" t="n">
-        <v>135.7108496</v>
+        <v>2.735581341</v>
       </c>
       <c r="F37" t="n">
-        <v>95.07827091</v>
+        <v>4.354582208</v>
       </c>
       <c r="G37" t="n">
-        <v>173.9610049</v>
+        <v>5.187071235</v>
       </c>
       <c r="H37" t="n">
-        <v>204.8907252</v>
+        <v>3.285609876</v>
       </c>
       <c r="I37" t="n">
-        <v>313.1926727</v>
+        <v>10.62264781</v>
       </c>
       <c r="J37" t="n">
-        <v>405.5782588</v>
+        <v>15.36526075</v>
       </c>
       <c r="K37" t="n">
-        <v>504.7378074</v>
+        <v>27.16330468</v>
       </c>
       <c r="L37" t="n">
-        <v>343.9898331</v>
+        <v>9.799418703</v>
       </c>
       <c r="M37" t="n">
-        <v>324.999028</v>
+        <v>14.38156165</v>
       </c>
       <c r="N37" t="n">
-        <v>290.2610888</v>
+        <v>7.904124782</v>
       </c>
       <c r="O37" t="n">
-        <v>115.946762</v>
+        <v>15.72886468</v>
       </c>
       <c r="P37" t="n">
-        <v>35.81537488</v>
+        <v>0.254796467</v>
       </c>
     </row>
     <row r="38">
@@ -44205,48 +44205,20 @@
       <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.482288585</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2.736002829</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2.735581341</v>
-      </c>
-      <c r="F38" t="n">
-        <v>4.354582208</v>
-      </c>
-      <c r="G38" t="n">
-        <v>5.187071235</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.285609876</v>
-      </c>
-      <c r="I38" t="n">
-        <v>10.62264781</v>
-      </c>
-      <c r="J38" t="n">
-        <v>15.36526075</v>
-      </c>
-      <c r="K38" t="n">
-        <v>27.16330468</v>
-      </c>
-      <c r="L38" t="n">
-        <v>9.799418703</v>
-      </c>
-      <c r="M38" t="n">
-        <v>14.38156165</v>
-      </c>
-      <c r="N38" t="n">
-        <v>7.904124782</v>
-      </c>
-      <c r="O38" t="n">
-        <v>15.72886468</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.254796467</v>
-      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -44255,20 +44227,48 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
+      <c r="C39" t="n">
+        <v>39.44749805</v>
+      </c>
+      <c r="D39" t="n">
+        <v>137.5069091</v>
+      </c>
+      <c r="E39" t="n">
+        <v>247.420427</v>
+      </c>
+      <c r="F39" t="n">
+        <v>153.2595485</v>
+      </c>
+      <c r="G39" t="n">
+        <v>80.1279734</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>38.98808679</v>
+      </c>
+      <c r="L39" t="n">
+        <v>35.60867327</v>
+      </c>
+      <c r="M39" t="n">
+        <v>28.39656921</v>
+      </c>
+      <c r="N39" t="n">
+        <v>21.79388263</v>
+      </c>
+      <c r="O39" t="n">
+        <v>27.53681128</v>
+      </c>
+      <c r="P39" t="n">
+        <v>42.17540574</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -44278,46 +44278,46 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>39.44749805</v>
+        <v>646.1046796</v>
       </c>
       <c r="D40" t="n">
-        <v>137.5069091</v>
+        <v>623.7398679</v>
       </c>
       <c r="E40" t="n">
-        <v>247.420427</v>
+        <v>388.9767713</v>
       </c>
       <c r="F40" t="n">
-        <v>153.2595485</v>
+        <v>622.6644827</v>
       </c>
       <c r="G40" t="n">
-        <v>80.1279734</v>
+        <v>842.6723456</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>700.8976817</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>611.0734161</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>963.2533229</v>
       </c>
       <c r="K40" t="n">
-        <v>38.98808679</v>
+        <v>1170.936034</v>
       </c>
       <c r="L40" t="n">
-        <v>35.60867327</v>
+        <v>995.8323342</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39656921</v>
+        <v>1007.774649</v>
       </c>
       <c r="N40" t="n">
-        <v>21.79388263</v>
+        <v>1363.895697</v>
       </c>
       <c r="O40" t="n">
-        <v>27.53681128</v>
+        <v>1634.24141</v>
       </c>
       <c r="P40" t="n">
-        <v>42.17540574</v>
+        <v>1165.694592</v>
       </c>
     </row>
     <row r="41">
@@ -44328,46 +44328,46 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>646.1046796</v>
+        <v>70.78081188</v>
       </c>
       <c r="D41" t="n">
-        <v>623.7398679</v>
+        <v>79.2641897</v>
       </c>
       <c r="E41" t="n">
-        <v>388.9767713</v>
+        <v>88.05603603</v>
       </c>
       <c r="F41" t="n">
-        <v>622.6644827</v>
+        <v>86.53463739</v>
       </c>
       <c r="G41" t="n">
-        <v>842.6723456</v>
+        <v>91.16015665</v>
       </c>
       <c r="H41" t="n">
-        <v>700.8976817</v>
+        <v>103.1059208</v>
       </c>
       <c r="I41" t="n">
-        <v>611.0734161</v>
+        <v>96.52122162</v>
       </c>
       <c r="J41" t="n">
-        <v>963.2533229</v>
+        <v>97.7534863</v>
       </c>
       <c r="K41" t="n">
-        <v>1170.936034</v>
+        <v>106.8945296</v>
       </c>
       <c r="L41" t="n">
-        <v>995.8323342</v>
+        <v>92.28011525</v>
       </c>
       <c r="M41" t="n">
-        <v>1007.774649</v>
+        <v>103.0851156</v>
       </c>
       <c r="N41" t="n">
-        <v>1363.895697</v>
+        <v>98.14468654</v>
       </c>
       <c r="O41" t="n">
-        <v>1634.24141</v>
+        <v>89.64273948</v>
       </c>
       <c r="P41" t="n">
-        <v>1165.694592</v>
+        <v>87.03834653</v>
       </c>
     </row>
     <row r="42">
@@ -44378,46 +44378,46 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>70.78081188</v>
+        <v>136.6520361</v>
       </c>
       <c r="D42" t="n">
-        <v>79.2641897</v>
+        <v>145.0152379</v>
       </c>
       <c r="E42" t="n">
-        <v>88.05603603</v>
+        <v>123.0944834</v>
       </c>
       <c r="F42" t="n">
-        <v>86.53463739</v>
+        <v>105.0937734</v>
       </c>
       <c r="G42" t="n">
-        <v>91.16015665</v>
+        <v>154.4221618</v>
       </c>
       <c r="H42" t="n">
-        <v>103.1059208</v>
+        <v>432.4326936</v>
       </c>
       <c r="I42" t="n">
-        <v>96.52122162</v>
+        <v>265.9861378</v>
       </c>
       <c r="J42" t="n">
-        <v>97.7534863</v>
+        <v>298.5435365</v>
       </c>
       <c r="K42" t="n">
-        <v>106.8945296</v>
+        <v>303.2879504</v>
       </c>
       <c r="L42" t="n">
-        <v>92.28011525</v>
+        <v>213.6124922</v>
       </c>
       <c r="M42" t="n">
-        <v>103.0851156</v>
+        <v>168.6506136</v>
       </c>
       <c r="N42" t="n">
-        <v>98.14468654</v>
+        <v>300.8754886</v>
       </c>
       <c r="O42" t="n">
-        <v>89.64273948</v>
+        <v>325.5244581</v>
       </c>
       <c r="P42" t="n">
-        <v>87.03834653</v>
+        <v>352.9077719</v>
       </c>
     </row>
     <row r="43">
@@ -44428,46 +44428,46 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>136.6520361</v>
+        <v>0.405772369</v>
       </c>
       <c r="D43" t="n">
-        <v>145.0152379</v>
+        <v>4.59253866</v>
       </c>
       <c r="E43" t="n">
-        <v>123.0944834</v>
+        <v>1.528836983</v>
       </c>
       <c r="F43" t="n">
-        <v>105.0937734</v>
+        <v>2.183399413</v>
       </c>
       <c r="G43" t="n">
-        <v>154.4221618</v>
+        <v>1.607450281</v>
       </c>
       <c r="H43" t="n">
-        <v>432.4326936</v>
+        <v>1.271016906</v>
       </c>
       <c r="I43" t="n">
-        <v>265.9861378</v>
+        <v>1.780862795</v>
       </c>
       <c r="J43" t="n">
-        <v>298.5435365</v>
+        <v>14.05635673</v>
       </c>
       <c r="K43" t="n">
-        <v>303.2879504</v>
+        <v>7.291574813</v>
       </c>
       <c r="L43" t="n">
-        <v>213.6124922</v>
+        <v>21.37435694</v>
       </c>
       <c r="M43" t="n">
-        <v>168.6506136</v>
+        <v>12.70738374</v>
       </c>
       <c r="N43" t="n">
-        <v>300.8754886</v>
+        <v>31.22663072</v>
       </c>
       <c r="O43" t="n">
-        <v>325.5244581</v>
+        <v>14.46094772</v>
       </c>
       <c r="P43" t="n">
-        <v>352.9077719</v>
+        <v>17.69044244</v>
       </c>
     </row>
     <row r="44">
@@ -44478,46 +44478,46 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>0.405772369</v>
+        <v>130.3248993</v>
       </c>
       <c r="D44" t="n">
-        <v>4.59253866</v>
+        <v>66.92741237</v>
       </c>
       <c r="E44" t="n">
-        <v>1.528836983</v>
+        <v>115.6831592</v>
       </c>
       <c r="F44" t="n">
-        <v>2.183399413</v>
+        <v>241.6427677</v>
       </c>
       <c r="G44" t="n">
-        <v>1.607450281</v>
+        <v>292.7735326</v>
       </c>
       <c r="H44" t="n">
-        <v>1.271016906</v>
+        <v>674.2395005</v>
       </c>
       <c r="I44" t="n">
-        <v>1.780862795</v>
+        <v>715.7820372</v>
       </c>
       <c r="J44" t="n">
-        <v>14.05635673</v>
+        <v>743.5774815</v>
       </c>
       <c r="K44" t="n">
-        <v>7.291574813</v>
+        <v>596.1649431</v>
       </c>
       <c r="L44" t="n">
-        <v>21.37435694</v>
+        <v>567.6300133</v>
       </c>
       <c r="M44" t="n">
-        <v>12.70738374</v>
+        <v>569.5367457</v>
       </c>
       <c r="N44" t="n">
-        <v>31.22663072</v>
+        <v>660.2329688</v>
       </c>
       <c r="O44" t="n">
-        <v>14.46094772</v>
+        <v>635.9008571</v>
       </c>
       <c r="P44" t="n">
-        <v>17.69044244</v>
+        <v>482.8223885</v>
       </c>
     </row>
     <row r="45">
@@ -44528,46 +44528,46 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>130.3248993</v>
+        <v>175.8664821</v>
       </c>
       <c r="D45" t="n">
-        <v>66.92741237</v>
+        <v>190.6511357</v>
       </c>
       <c r="E45" t="n">
-        <v>115.6831592</v>
+        <v>268.265142</v>
       </c>
       <c r="F45" t="n">
-        <v>241.6427677</v>
+        <v>234.9413949</v>
       </c>
       <c r="G45" t="n">
-        <v>292.7735326</v>
+        <v>312.9072861</v>
       </c>
       <c r="H45" t="n">
-        <v>674.2395005</v>
+        <v>328.9975922</v>
       </c>
       <c r="I45" t="n">
-        <v>715.7820372</v>
+        <v>532.2755499</v>
       </c>
       <c r="J45" t="n">
-        <v>743.5774815</v>
+        <v>624.5082701</v>
       </c>
       <c r="K45" t="n">
-        <v>596.1649431</v>
+        <v>610.8285928</v>
       </c>
       <c r="L45" t="n">
-        <v>567.6300133</v>
+        <v>391.8638684</v>
       </c>
       <c r="M45" t="n">
-        <v>569.5367457</v>
+        <v>357.083404</v>
       </c>
       <c r="N45" t="n">
-        <v>660.2329688</v>
+        <v>480.7305343</v>
       </c>
       <c r="O45" t="n">
-        <v>635.9008571</v>
+        <v>485.3570905</v>
       </c>
       <c r="P45" t="n">
-        <v>482.8223885</v>
+        <v>523.2975539</v>
       </c>
     </row>
     <row r="46">
@@ -44578,46 +44578,46 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>175.8664821</v>
+        <v>32.77010506</v>
       </c>
       <c r="D46" t="n">
-        <v>190.6511357</v>
+        <v>37.034437</v>
       </c>
       <c r="E46" t="n">
-        <v>268.265142</v>
+        <v>25.6211569</v>
       </c>
       <c r="F46" t="n">
-        <v>234.9413949</v>
+        <v>16.18601674</v>
       </c>
       <c r="G46" t="n">
-        <v>312.9072861</v>
+        <v>24.63746288</v>
       </c>
       <c r="H46" t="n">
-        <v>328.9975922</v>
+        <v>25.7933191</v>
       </c>
       <c r="I46" t="n">
-        <v>532.2755499</v>
+        <v>24.66496299</v>
       </c>
       <c r="J46" t="n">
-        <v>624.5082701</v>
+        <v>28.93654004</v>
       </c>
       <c r="K46" t="n">
-        <v>610.8285928</v>
+        <v>25.66001399</v>
       </c>
       <c r="L46" t="n">
-        <v>391.8638684</v>
+        <v>23.08373073</v>
       </c>
       <c r="M46" t="n">
-        <v>357.083404</v>
+        <v>20.4095167</v>
       </c>
       <c r="N46" t="n">
-        <v>480.7305343</v>
+        <v>16.13637255</v>
       </c>
       <c r="O46" t="n">
-        <v>485.3570905</v>
+        <v>16.23467405</v>
       </c>
       <c r="P46" t="n">
-        <v>523.2975539</v>
+        <v>17.44158618</v>
       </c>
     </row>
     <row r="47">
@@ -51620,46 +51620,46 @@
         <v>405</v>
       </c>
       <c r="C202" t="n">
-        <v>42.53040466</v>
+        <v>2882.793036</v>
       </c>
       <c r="D202" t="n">
-        <v>51.37299195</v>
+        <v>1301.519575</v>
       </c>
       <c r="E202" t="n">
-        <v>42.82194913</v>
+        <v>568.0013433</v>
       </c>
       <c r="F202" t="n">
-        <v>82.13944907</v>
+        <v>553.7120643</v>
       </c>
       <c r="G202" t="n">
-        <v>86.33075082</v>
+        <v>999.80952</v>
       </c>
       <c r="H202" t="n">
-        <v>307.0461622</v>
+        <v>3056.626717</v>
       </c>
       <c r="I202" t="n">
-        <v>190.5876453</v>
+        <v>2558.302413</v>
       </c>
       <c r="J202" t="n">
-        <v>274.9087468</v>
+        <v>2922.272415</v>
       </c>
       <c r="K202" t="n">
-        <v>247.2004096</v>
+        <v>1383.104422</v>
       </c>
       <c r="L202" t="n">
-        <v>143.4444404</v>
+        <v>1333.037185</v>
       </c>
       <c r="M202" t="n">
-        <v>173.7447424</v>
+        <v>843.6928352</v>
       </c>
       <c r="N202" t="n">
-        <v>169.9004486</v>
+        <v>812.4209941</v>
       </c>
       <c r="O202" t="n">
-        <v>171.8015586</v>
+        <v>718.9806706</v>
       </c>
       <c r="P202" t="n">
-        <v>82.27467625</v>
+        <v>574.7266793</v>
       </c>
     </row>
     <row r="203">
@@ -51670,46 +51670,46 @@
         <v>407</v>
       </c>
       <c r="C203" t="n">
-        <v>2882.793036</v>
+        <v>42.53040466</v>
       </c>
       <c r="D203" t="n">
-        <v>1301.519575</v>
+        <v>51.37299195</v>
       </c>
       <c r="E203" t="n">
-        <v>568.0013433</v>
+        <v>42.82194913</v>
       </c>
       <c r="F203" t="n">
-        <v>553.7120643</v>
+        <v>82.13944907</v>
       </c>
       <c r="G203" t="n">
-        <v>999.80952</v>
+        <v>86.33075082</v>
       </c>
       <c r="H203" t="n">
-        <v>3056.626717</v>
+        <v>307.0461622</v>
       </c>
       <c r="I203" t="n">
-        <v>2558.302413</v>
+        <v>190.5876453</v>
       </c>
       <c r="J203" t="n">
-        <v>2922.272415</v>
+        <v>274.9087468</v>
       </c>
       <c r="K203" t="n">
-        <v>1383.104422</v>
+        <v>247.2004096</v>
       </c>
       <c r="L203" t="n">
-        <v>1333.037185</v>
+        <v>143.4444404</v>
       </c>
       <c r="M203" t="n">
-        <v>843.6928352</v>
+        <v>173.7447424</v>
       </c>
       <c r="N203" t="n">
-        <v>812.4209941</v>
+        <v>169.9004486</v>
       </c>
       <c r="O203" t="n">
-        <v>718.9806706</v>
+        <v>171.8015586</v>
       </c>
       <c r="P203" t="n">
-        <v>574.7266793</v>
+        <v>82.27467625</v>
       </c>
     </row>
     <row r="204">

--- a/user-data/fdi-pp/fdi-pp.xlsx
+++ b/user-data/fdi-pp/fdi-pp.xlsx
@@ -1360,7 +1360,7 @@
     <t xml:space="preserve">Units of measure: US$ per person</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 73</t>
+    <t xml:space="preserve">Source: 74</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/fdi-pp/fdi-pp.xlsx
+++ b/user-data/fdi-pp/fdi-pp.xlsx
@@ -1360,7 +1360,7 @@
     <t xml:space="preserve">Units of measure: US$ per person</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 74</t>
+    <t xml:space="preserve">Source: 76</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/fdi-pp/fdi-pp.xlsx
+++ b/user-data/fdi-pp/fdi-pp.xlsx
@@ -1360,7 +1360,7 @@
     <t xml:space="preserve">Units of measure: US$ per person</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 73</t>
+    <t xml:space="preserve">Source: 76</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/fdi-pp/fdi-pp.xlsx
+++ b/user-data/fdi-pp/fdi-pp.xlsx
@@ -1360,7 +1360,7 @@
     <t xml:space="preserve">Units of measure: US$ per person</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 76</t>
+    <t xml:space="preserve">Source: 75</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
